--- a/Détails commande.xlsx
+++ b/Détails commande.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -65,16 +65,16 @@
     <t>9899999</t>
   </si>
   <si>
+    <t>ZE</t>
+  </si>
+  <si>
+    <t>KK</t>
+  </si>
+  <si>
+    <t>Entrer votre numero</t>
+  </si>
+  <si>
     <t>Entrer votre nom</t>
-  </si>
-  <si>
-    <t>Entrer votre numero</t>
-  </si>
-  <si>
-    <t>ZE</t>
-  </si>
-  <si>
-    <t>KK</t>
   </si>
 </sst>
 </file>
@@ -195,7 +195,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -204,27 +204,95 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>29.0</v>
+        <v>33.0</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
-        <v>18</v>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Détails commande.xlsx
+++ b/Détails commande.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -51,30 +51,6 @@
   </si>
   <si>
     <t>52464649</t>
-  </si>
-  <si>
-    <t>tett</t>
-  </si>
-  <si>
-    <t>Entrer votre prenom</t>
-  </si>
-  <si>
-    <t>Entrer votre adresse</t>
-  </si>
-  <si>
-    <t>9899999</t>
-  </si>
-  <si>
-    <t>ZE</t>
-  </si>
-  <si>
-    <t>KK</t>
-  </si>
-  <si>
-    <t>Entrer votre numero</t>
-  </si>
-  <si>
-    <t>Entrer votre nom</t>
   </si>
 </sst>
 </file>
@@ -161,7 +137,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>25.0</v>
+        <v>47.0</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -176,125 +152,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
